--- a/Homologação/Telegram BOT/Comercial/Memória/Consolidado.xlsx
+++ b/Homologação/Telegram BOT/Comercial/Memória/Consolidado.xlsx
@@ -22,7 +22,7 @@
     <t>Código</t>
   </si>
   <si>
-    <t>ULISSES</t>
+    <t>RENATAAP</t>
   </si>
 </sst>
 </file>
